--- a/TestData/MOCK_DATA (3).xlsx
+++ b/TestData/MOCK_DATA (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B98A660-89B0-4FED-968C-3210A699B80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C3DF14-A2E7-4FB5-82F7-0F60A7835A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,64 +37,64 @@
     <t>ConfPass</t>
   </si>
   <si>
-    <t>Babbette</t>
-  </si>
-  <si>
-    <t>bclarae0</t>
-  </si>
-  <si>
-    <t>bdannohl0@storify.com</t>
-  </si>
-  <si>
-    <t>uL2"kT_t6Z?k</t>
-  </si>
-  <si>
-    <t>Daile</t>
-  </si>
-  <si>
-    <t>dhiner1</t>
-  </si>
-  <si>
-    <t>dsybbe1@whitehouse.gov</t>
-  </si>
-  <si>
-    <t>aU1#?_3(gG21@M</t>
-  </si>
-  <si>
-    <t>Editha</t>
-  </si>
-  <si>
-    <t>efoggarty2</t>
-  </si>
-  <si>
-    <t>eguilliland2@answers.com</t>
-  </si>
-  <si>
-    <t>wH1(@8rHcB&gt;guG,</t>
-  </si>
-  <si>
-    <t>Ginny</t>
-  </si>
-  <si>
-    <t>gbarthrup3</t>
-  </si>
-  <si>
-    <t>gmarvelley3@weebly.com</t>
-  </si>
-  <si>
-    <t>gY8=5bn.rZB</t>
-  </si>
-  <si>
-    <t>Glyn</t>
-  </si>
-  <si>
-    <t>ghaet4</t>
-  </si>
-  <si>
-    <t>goswick4@behance.net</t>
-  </si>
-  <si>
-    <t>uE6_X0paIOu</t>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>adanahar0@google.es</t>
+  </si>
+  <si>
+    <t>jH8/PCMj,X2</t>
+  </si>
+  <si>
+    <t>Maighdiln</t>
+  </si>
+  <si>
+    <t>mmastrantone1@umich.edu</t>
+  </si>
+  <si>
+    <t>eG6&amp;Pl\V+e</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>atame2@dagondesign.com</t>
+  </si>
+  <si>
+    <t>yH3'l'.R</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>lnyland3@google.it</t>
+  </si>
+  <si>
+    <t>jT6&lt;@l48xN</t>
+  </si>
+  <si>
+    <t>Beverly</t>
+  </si>
+  <si>
+    <t>bthomson4@meetup.com</t>
+  </si>
+  <si>
+    <t>mA1,D}Bk56"</t>
+  </si>
+  <si>
+    <t>alytton</t>
+  </si>
+  <si>
+    <t>mingesd</t>
+  </si>
+  <si>
+    <t>adales</t>
+  </si>
+  <si>
+    <t>lmatteuzzi</t>
+  </si>
+  <si>
+    <t>bimlacke</t>
   </si>
 </sst>
 </file>
@@ -447,16 +447,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,84 +481,84 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
